--- a/bioSample/bioSample_1272.xlsx
+++ b/bioSample/bioSample_1272.xlsx
@@ -28,7 +28,7 @@
     <t xml:space="preserve">harvester</t>
   </si>
   <si>
-    <t xml:space="preserve">bioSampleNumber </t>
+    <t xml:space="preserve">bioSampleNumber</t>
   </si>
   <si>
     <t xml:space="preserve">experimentDesign</t>

--- a/bioSample/bioSample_1272.xlsx
+++ b/bioSample/bioSample_1272.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hollybrown/database_files/bioSample/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5693A64-0D34-8A46-86C9-59B89785C94C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E04BAB7C-8233-5A49-B158-67810009BD76}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1020" yWindow="1460" windowWidth="33600" windowHeight="18940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="18940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -152,6 +152,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -499,7 +500,7 @@
   <dimension ref="A1:M29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3:H29"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -556,7 +557,7 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
         <v>15</v>
@@ -591,7 +592,7 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="E3" t="s">
         <v>15</v>
